--- a/Задание_6.xlsx
+++ b/Задание_6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YandexDisk\YandexDisk\Личное\Курсы\QA tester\Задание 6 - Виды тестирования\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YandexDisk\YandexDisk\Личное\Курсы\QA tester\Задание 9\Задание 9.4\MyFirst_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>passed</t>
   </si>
@@ -572,6 +572,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -586,21 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,7 +1196,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D3:D12"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1226,43 +1226,43 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="33"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="25" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="10"/>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="25" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="10"/>
-      <c r="P1" s="32"/>
+      <c r="P1" s="25"/>
       <c r="Q1" s="10"/>
-      <c r="R1" s="32"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="10"/>
-      <c r="T1" s="32"/>
+      <c r="T1" s="25"/>
       <c r="U1" s="10"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -1272,29 +1272,29 @@
     </row>
     <row r="2" spans="1:26" ht="127.05" customHeight="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="32"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="32"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="32"/>
+      <c r="P2" s="25"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="32"/>
+      <c r="R2" s="25"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="32"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="10"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -1324,7 +1324,9 @@
       <c r="I3" s="15"/>
       <c r="J3" s="14"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="6"/>
       <c r="O3" s="10"/>
@@ -1360,7 +1362,9 @@
       <c r="I4" s="15"/>
       <c r="J4" s="14"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M4" s="10"/>
       <c r="N4" s="6"/>
       <c r="O4" s="10"/>
@@ -1396,7 +1400,9 @@
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="6"/>
       <c r="O5" s="10"/>
@@ -2993,6 +2999,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="G1:G2"/>
@@ -3000,12 +3012,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T3:T41 P3:P41 R3:R41 L3:L41 N3:N41">
